--- a/1000道算法题.xlsx
+++ b/1000道算法题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm_questions_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F687B1-992A-475F-B8C0-F13A37DF5DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273533C-E724-4F0B-8FAB-C94341C99913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5230" yWindow="1610" windowWidth="24820" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3680" windowWidth="24820" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>题目个数</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>643.子数组最大平均数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.08.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.无重复字符的最长子串</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +635,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -847,7 +855,21 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/1000道算法题.xlsx
+++ b/1000道算法题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm_questions_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273533C-E724-4F0B-8FAB-C94341C99913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF1B70-88BD-4501-8A05-D95E895E8738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3680" windowWidth="24820" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2530" yWindow="3740" windowWidth="24820" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>题目个数</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>3.无重复字符的最长子串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.08.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.两两交换链表中的节点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +647,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -873,7 +885,21 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
